--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-0.327825017882809</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.92071639386602</v>
+        <v>-1.919904199999429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04960768777663335</v>
+        <v>0.05003109892026324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01605747020610919</v>
+        <v>0.016532823980742</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3477896634719716</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.78118668184876</v>
+        <v>-1.780148616238262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004274603315933623</v>
+        <v>0.0005281975553566063</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01810054702555748</v>
+        <v>0.01847673759554835</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3771300691273123</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.749869997411362</v>
+        <v>-1.748485647594178</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04528677700834251</v>
+        <v>-0.0450333599298131</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01412772276339455</v>
+        <v>0.01466131524551548</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3966707018689333</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.772604342589868</v>
+        <v>-1.771478918918138</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08195984851552723</v>
+        <v>-0.08157893588817247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03881621268099584</v>
+        <v>0.03934508310575287</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3912679321629841</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.739970204147941</v>
+        <v>-1.739080096334845</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.142545418513512</v>
+        <v>-0.1421408955993377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04626132312474809</v>
+        <v>0.04675871316707911</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.352514125336901</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.596473963945003</v>
+        <v>-1.595553162759042</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2013775312103678</v>
+        <v>-0.2014578061855541</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04083725323274592</v>
+        <v>0.04131890308386393</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2799251597948832</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.456953696042471</v>
+        <v>-1.456556256214342</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2999284424141252</v>
+        <v>-0.3004399986285479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06832120110977723</v>
+        <v>0.06906256411590986</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1797988262837514</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.236949895420031</v>
+        <v>-1.236666571978197</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3900709434718942</v>
+        <v>-0.3908988775296984</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09357004183456157</v>
+        <v>0.09425001809496346</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.05897709189048485</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.944002900678275</v>
+        <v>-0.9441524324947985</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4363376615234067</v>
+        <v>-0.437705484139817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1357081077309023</v>
+        <v>0.1364840991577035</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07400114694565416</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7459897211995271</v>
+        <v>-0.7468743199456981</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5439313125790365</v>
+        <v>-0.5454722772987899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.134837675156823</v>
+        <v>0.1357112557691449</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2151376032754273</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5243111642320234</v>
+        <v>-0.5260598994757885</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6704745798360053</v>
+        <v>-0.6725444149805156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1476328765938763</v>
+        <v>0.148463958689923</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3643169723895331</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2792961997721158</v>
+        <v>-0.2818083342897116</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8060180884285715</v>
+        <v>-0.8079021893167684</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2113712068918263</v>
+        <v>0.2119709081770419</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5214261356593397</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05561549048231763</v>
+        <v>-0.05880445322207282</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9227268842156535</v>
+        <v>-0.9242725709927708</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2758839545974563</v>
+        <v>0.2764411573663968</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6882572009285498</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2940859117161775</v>
+        <v>0.290607329458103</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.061814296859828</v>
+        <v>-1.062885416871873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3096403686728709</v>
+        <v>0.3100401695296813</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8602865720341139</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5597520070475501</v>
+        <v>0.5557477024029612</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.2037058245686</v>
+        <v>-1.204433021402641</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3317616334036307</v>
+        <v>0.3319174612966395</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.032674309908509</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8110929543559653</v>
+        <v>0.8061584044106876</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.334035394821858</v>
+        <v>-1.334639031154876</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3599318536175491</v>
+        <v>0.3599035212733657</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.195986918767826</v>
       </c>
       <c r="E18" t="n">
-        <v>1.049161772433573</v>
+        <v>1.044198890144112</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.531762889830089</v>
+        <v>-1.532168199753824</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4086697816895036</v>
+        <v>0.4086792258042314</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.341650901234849</v>
       </c>
       <c r="E19" t="n">
-        <v>1.322855365283579</v>
+        <v>1.317930259453029</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.734974267456933</v>
+        <v>-1.735312681568012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4437310576164765</v>
+        <v>0.4435248611115861</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.465141881451697</v>
       </c>
       <c r="E20" t="n">
-        <v>1.617766735888719</v>
+        <v>1.612784965369802</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.934205737735567</v>
+        <v>-1.934648037108653</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5092684917700732</v>
+        <v>0.5091787726801591</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.568548309886259</v>
       </c>
       <c r="E21" t="n">
-        <v>1.822431720174083</v>
+        <v>1.817687626542483</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.160415108743735</v>
+        <v>-2.160896758594853</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5835621942954656</v>
+        <v>0.5832977590830871</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.656447695324013</v>
       </c>
       <c r="E22" t="n">
-        <v>1.958335679145427</v>
+        <v>1.953649824221315</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.328388133292459</v>
+        <v>-2.328967372329098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6457485417398132</v>
+        <v>0.6455218829863459</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.727061335645556</v>
       </c>
       <c r="E23" t="n">
-        <v>2.160334275039308</v>
+        <v>2.155618513751891</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.479960665606791</v>
+        <v>-2.480378567683496</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7033733817706315</v>
+        <v>0.7031624632083772</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.777576428662459</v>
       </c>
       <c r="E24" t="n">
-        <v>2.271020873668294</v>
+        <v>2.266330296686818</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.722152626772646</v>
+        <v>-2.722506781074938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7496117674779604</v>
+        <v>0.749520474368925</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.804257560894324</v>
       </c>
       <c r="E25" t="n">
-        <v>2.42044408287249</v>
+        <v>2.416183213111128</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.883040991256395</v>
+        <v>-2.883234595608315</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7944036296128141</v>
+        <v>0.7942352095668349</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.806756608354011</v>
       </c>
       <c r="E26" t="n">
-        <v>2.572629695634568</v>
+        <v>2.568501043479396</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.0538944707971</v>
+        <v>-3.054579956124426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8242863826307076</v>
+        <v>0.8240408356477847</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.784692553768091</v>
       </c>
       <c r="E27" t="n">
-        <v>2.626675216183548</v>
+        <v>2.62320450402108</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.178714187116245</v>
+        <v>-3.179630266244841</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8660167775746315</v>
+        <v>0.8659365025994452</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.739935851444831</v>
       </c>
       <c r="E28" t="n">
-        <v>2.641245911189429</v>
+        <v>2.637938897015576</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.268667805879458</v>
+        <v>-3.269594116132343</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8933606377498671</v>
+        <v>0.8931922177038879</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.67403279429062</v>
       </c>
       <c r="E29" t="n">
-        <v>2.651491201649975</v>
+        <v>2.648207797762942</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.364820698951913</v>
+        <v>-3.365920151308142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8941303331001831</v>
+        <v>0.894072094392695</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.590528245651036</v>
       </c>
       <c r="E30" t="n">
-        <v>2.65084427979112</v>
+        <v>2.647781238581069</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.404314412724469</v>
+        <v>-3.405498862113248</v>
       </c>
       <c r="G30" t="n">
-        <v>0.903327326825943</v>
+        <v>0.9032564959654845</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.493130504192194</v>
       </c>
       <c r="E31" t="n">
-        <v>2.640336128137317</v>
+        <v>2.63802861610549</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.487872004788276</v>
+        <v>-3.489338990609329</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8687225164441473</v>
+        <v>0.868694184099964</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.386681893093266</v>
       </c>
       <c r="E32" t="n">
-        <v>2.602756421616263</v>
+        <v>2.600825100154427</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.53695936510516</v>
+        <v>-3.538772635132898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8660639981482705</v>
+        <v>0.8658845599684423</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.275573362768148</v>
       </c>
       <c r="E33" t="n">
-        <v>2.533730961089864</v>
+        <v>2.532205736561324</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.579305988535073</v>
+        <v>-3.581313649924292</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8806409892306362</v>
+        <v>0.8808503337737692</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.163134603215779</v>
       </c>
       <c r="E34" t="n">
-        <v>2.475281335039484</v>
+        <v>2.474165355482482</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.59883484377305</v>
+        <v>-3.601316284917781</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8767311257333252</v>
+        <v>0.8770065790795529</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.052551386409452</v>
       </c>
       <c r="E35" t="n">
-        <v>2.413830054524784</v>
+        <v>2.413161096398231</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.571974207468054</v>
+        <v>-3.574587866218974</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8295672167826714</v>
+        <v>0.8299811838115736</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9438709328386615</v>
       </c>
       <c r="E36" t="n">
-        <v>2.329431149240641</v>
+        <v>2.329065976804499</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.553396846788903</v>
+        <v>-3.556170268480634</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8220811818417654</v>
+        <v>0.8224920008324249</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8389148372493583</v>
       </c>
       <c r="E37" t="n">
-        <v>2.176834717487904</v>
+        <v>2.176870919927693</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.498911387895519</v>
+        <v>-3.501724947074844</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7763323160811609</v>
+        <v>0.7767761894733677</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7367269928401823</v>
       </c>
       <c r="E38" t="n">
-        <v>2.09347623884294</v>
+        <v>2.093525033435701</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.456619068125291</v>
+        <v>-3.459435775342858</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7664663642288482</v>
+        <v>0.7670833797243981</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6380853536634633</v>
       </c>
       <c r="E39" t="n">
-        <v>2.008871137053907</v>
+        <v>2.008723179256505</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.345960014830928</v>
+        <v>-3.348905791616442</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7119753962685397</v>
+        <v>0.7125971338214535</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5425570600354993</v>
       </c>
       <c r="E40" t="n">
-        <v>1.88376967131205</v>
+        <v>1.884092345231916</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.26326183720735</v>
+        <v>-3.266123403969875</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6781969459254269</v>
+        <v>0.6788643300328584</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4506068317735369</v>
       </c>
       <c r="E41" t="n">
-        <v>1.772880024216416</v>
+        <v>1.773094090816913</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.205366265887668</v>
+        <v>-3.208255377984816</v>
       </c>
       <c r="G41" t="n">
-        <v>0.631325804531335</v>
+        <v>0.6319081916062163</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3629498195537135</v>
       </c>
       <c r="E42" t="n">
-        <v>1.636514877642531</v>
+        <v>1.636617188885416</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.14356555312804</v>
+        <v>-3.146558550487193</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5843082793589622</v>
+        <v>0.5849693673899085</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2799460711199074</v>
       </c>
       <c r="E43" t="n">
-        <v>1.513174739297409</v>
+        <v>1.513484821064305</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.037563235404045</v>
+        <v>-3.040543640610228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5296992599645561</v>
+        <v>0.5303383117278042</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2033601166206701</v>
       </c>
       <c r="E44" t="n">
-        <v>1.320793400234675</v>
+        <v>1.320807566406767</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.983095090720995</v>
+        <v>-2.98586064231712</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4838040104256707</v>
+        <v>0.4841975152059959</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.133152497185779</v>
       </c>
       <c r="E45" t="n">
-        <v>1.138340973789106</v>
+        <v>1.138251254699192</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.868666261631117</v>
+        <v>-2.871087103039677</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4371988782630786</v>
+        <v>0.4375435884506435</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.07072492671025667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9629653373129048</v>
+        <v>0.9627260864064671</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.708163531832086</v>
+        <v>-2.710533217619204</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3806727035789283</v>
+        <v>0.3809009363515169</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01495736602912051</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8878342566149803</v>
+        <v>0.8875005645612646</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.664019378565647</v>
+        <v>-2.666088426700597</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3445741490510184</v>
+        <v>0.3448905268943998</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.0341421307108699</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7414410342192885</v>
+        <v>0.7410066049418096</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.586776751216498</v>
+        <v>-2.588937879470044</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3522238819805397</v>
+        <v>0.3525670181489832</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.07779267387543477</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6049342259244864</v>
+        <v>0.6042416575111141</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.529205427835804</v>
+        <v>-2.531211515205902</v>
       </c>
       <c r="G49" t="n">
-        <v>0.308201715196002</v>
+        <v>0.3084299479685906</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1170302765528279</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4712748182201172</v>
+        <v>0.4704043856460379</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.469910553517286</v>
+        <v>-2.471649057636763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2611196552396559</v>
+        <v>0.2614423291595225</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1523518677846481</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3574543475206219</v>
+        <v>0.3562281866251286</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.441397197134924</v>
+        <v>-2.443027093935031</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2442587624122829</v>
+        <v>0.2446680073838211</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1853221830219513</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2003404808897511</v>
+        <v>0.1990419151146781</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.445690334288272</v>
+        <v>-2.447311573983211</v>
       </c>
       <c r="G52" t="n">
-        <v>0.229434650327873</v>
+        <v>0.2299068560642632</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2163312071898621</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1416437338373272</v>
+        <v>0.1401011950984525</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.355845322844428</v>
+        <v>-2.357367399334726</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1925081617421589</v>
+        <v>0.19277574499278</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2472945584368657</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03889806167530347</v>
+        <v>0.03702970097831956</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.313157137265193</v>
+        <v>-2.314464360145433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1694487816151038</v>
+        <v>0.1697399751525444</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2785055639989293</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0496090335154342</v>
+        <v>-0.0514285996196578</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.271141844860314</v>
+        <v>-2.272435688578023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1521975320456483</v>
+        <v>0.1524777074492398</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3113448129105067</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08960643340680598</v>
+        <v>-0.09150155242885201</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.244378797740838</v>
+        <v>-2.245416076341775</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1234024262405735</v>
+        <v>0.1238525957092655</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3460798855992976</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1611534725655288</v>
+        <v>-0.16305488766406</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.218420074392347</v>
+        <v>-2.21940383634316</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1230891964354347</v>
+        <v>0.1234653870054255</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3830900357969642</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2379215331496059</v>
+        <v>-0.2398402624584714</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.201098780971994</v>
+        <v>-2.20201328608147</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1092881967798702</v>
+        <v>0.1097273481147131</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4229882470317334</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3116989574032117</v>
+        <v>-0.3134791730294028</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.194782242238214</v>
+        <v>-2.195618046391625</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08899751628718307</v>
+        <v>0.08927926570989589</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4659858914979128</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3529980711078992</v>
+        <v>-0.3547137519501169</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.206437853831446</v>
+        <v>-2.207192596000109</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06175439333571076</v>
+        <v>0.06194957170675205</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5130568346073905</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3796257525829429</v>
+        <v>-0.3811069045760869</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.153219480330709</v>
+        <v>-2.153750711784148</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0229406558235571</v>
+        <v>0.02317833271087351</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5633111482249579</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4218834439325025</v>
+        <v>-0.4234385748243475</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.134616935345617</v>
+        <v>-2.135002570030335</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05845367523834322</v>
+        <v>0.05881097757887847</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6166537280214307</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4322389157315397</v>
+        <v>-0.4337908985851422</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.159055943232492</v>
+        <v>-2.159414032582588</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0268316310914124</v>
+        <v>0.0272865226174683</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6714915416829264</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4212506882457396</v>
+        <v>-0.4227617466021882</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.127302468488932</v>
+        <v>-2.127510239012944</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009246689468241117</v>
+        <v>0.00971417314726742</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7279101177994813</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4745721599989217</v>
+        <v>-0.4759462786918172</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.137254991392917</v>
+        <v>-2.13744072564923</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009275021812424528</v>
+        <v>0.009750375587057335</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7855778821391388</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4942961936079406</v>
+        <v>-0.4955176324460699</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.125501003604604</v>
+        <v>-2.125459292097889</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02315449414373354</v>
+        <v>-0.02266025213964513</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8440253480198977</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5153424032788521</v>
+        <v>-0.5162506123118427</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.157662936310141</v>
+        <v>-2.157840013461287</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02284913443420121</v>
+        <v>-0.02230452381823117</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9025994166187769</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4618682516709038</v>
+        <v>-0.4626898896522228</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.189602932319574</v>
+        <v>-2.189644643826289</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04488540213241084</v>
+        <v>-0.04449976744769217</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9598493811768356</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4244412250046161</v>
+        <v>-0.4253211016934232</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.216006316069833</v>
+        <v>-2.215849701167263</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07455723658805011</v>
+        <v>-0.07407086467956819</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.01502104444418</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.344762803065254</v>
+        <v>-0.34572610276749</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.225282010751657</v>
+        <v>-2.225002622357627</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0827956526689379</v>
+        <v>-0.08220696951757145</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.066157275723569</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2910840289715366</v>
+        <v>-0.2920174223104679</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.250910977094236</v>
+        <v>-2.25072209479968</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08854554451904932</v>
+        <v>-0.08798991576923017</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.11282293620384</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2316002723584623</v>
+        <v>-0.2324313544545091</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.303844453134018</v>
+        <v>-2.303600480170216</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07371356233903294</v>
+        <v>-0.0731720997613055</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.153353474374142</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1035837232039561</v>
+        <v>-0.1046839625697453</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.313384583028221</v>
+        <v>-2.313034363773732</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08914839384250747</v>
+        <v>-0.08871868662239239</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.186778273468846</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.0296945435927379</v>
+        <v>-0.0308404295130448</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.357280828283054</v>
+        <v>-2.35703292027145</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07746602392421377</v>
+        <v>-0.07707409316300991</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.211531488785607</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06518575502014626</v>
+        <v>0.06415792053393692</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.388371640976546</v>
+        <v>-2.387975775167539</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08292472223688456</v>
+        <v>-0.08251075520798248</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.226630031645949</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2019444063743565</v>
+        <v>0.2008599071997803</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.412097618201472</v>
+        <v>-2.411503425983181</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09402785311853962</v>
+        <v>-0.09375554781055459</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.230673365552271</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3457546633919938</v>
+        <v>0.3446103514908083</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.349465036336236</v>
+        <v>-2.348589094695232</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.10304383464535</v>
+        <v>-0.1028832846949773</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.22297232576694</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5290979846602193</v>
+        <v>0.5278497874970278</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.343145349564214</v>
+        <v>-2.342296953257833</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07793193358411878</v>
+        <v>-0.07778397578671652</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.203001990861192</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6492412901699794</v>
+        <v>0.6481095704217643</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.274892732426373</v>
+        <v>-2.274047484158235</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06775275192666723</v>
+        <v>-0.06759062795717326</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.170203020860762</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8047953038516412</v>
+        <v>0.8036714541990325</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.252968220085776</v>
+        <v>-2.252294539901859</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04712365732290041</v>
+        <v>-0.04694894120043604</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.124710953728677</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9265157765209447</v>
+        <v>0.9256122895453182</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.21296531112748</v>
+        <v>-2.212317602259064</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02021422642514386</v>
+        <v>-0.02000645590113217</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.066327584307972</v>
       </c>
       <c r="E82" t="n">
-        <v>1.079138966598745</v>
+        <v>1.078136316418476</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.156757088305832</v>
+        <v>-2.156395850917494</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02495044996113763</v>
+        <v>-0.0248748970433152</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.9965008817745267</v>
       </c>
       <c r="E83" t="n">
-        <v>1.147747312057999</v>
+        <v>1.146935118191408</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.098668699643791</v>
+        <v>-2.09838931124976</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001241228217305818</v>
+        <v>0.001225488026092811</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.9157403225280387</v>
       </c>
       <c r="E84" t="n">
-        <v>1.28399912925515</v>
+        <v>1.282835929124509</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.016673321557874</v>
+        <v>-2.016327824360749</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03015438545647815</v>
+        <v>0.03015753349472075</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.8268522635268803</v>
       </c>
       <c r="E85" t="n">
-        <v>1.294268030002516</v>
+        <v>1.292753823607825</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.859416219186965</v>
+        <v>-1.858818091920871</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04587726245915072</v>
+        <v>0.04578596935011528</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.7320341368523712</v>
       </c>
       <c r="E86" t="n">
-        <v>1.337800676840329</v>
+        <v>1.336215639585179</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.763700903430231</v>
+        <v>-1.763079952886878</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06560601812553354</v>
+        <v>0.06565953477565777</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6347588690699455</v>
       </c>
       <c r="E87" t="n">
-        <v>1.34570382684838</v>
+        <v>1.343726858832026</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.57240012849427</v>
+        <v>-1.571724874291232</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05961687536898443</v>
+        <v>0.05965937388525955</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5385005790891986</v>
       </c>
       <c r="E88" t="n">
-        <v>1.337347359333395</v>
+        <v>1.334759671897976</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424820882690678</v>
+        <v>-1.424251874778328</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08800745825988493</v>
+        <v>0.0879303313229412</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4468489896710179</v>
       </c>
       <c r="E89" t="n">
-        <v>1.34841428777526</v>
+        <v>1.345710122924865</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.232037381742452</v>
+        <v>-1.231564388996501</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08204349980927662</v>
+        <v>0.08204507382839793</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3642001786691689</v>
       </c>
       <c r="E90" t="n">
-        <v>1.288973029678461</v>
+        <v>1.286150813393969</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065498288613232</v>
+        <v>-1.064993028475295</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09134595281616369</v>
+        <v>0.09144354200168434</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2932969270098876</v>
       </c>
       <c r="E91" t="n">
-        <v>1.228239501883074</v>
+        <v>1.225461358133978</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8756975538998709</v>
+        <v>-0.8749176274252665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05902032212201146</v>
+        <v>0.05907698681037829</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2375744491419651</v>
       </c>
       <c r="E92" t="n">
-        <v>1.21377426615832</v>
+        <v>1.210824554325003</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7114006510089445</v>
+        <v>-0.7108607624503384</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04104817179500021</v>
+        <v>0.04111270657897354</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1975013734184342</v>
       </c>
       <c r="E93" t="n">
-        <v>1.194457903501718</v>
+        <v>1.191873364104542</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5353497603297052</v>
+        <v>-0.5349169050713475</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02434468087975731</v>
+        <v>0.0243242186311804</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1724049619055487</v>
       </c>
       <c r="E94" t="n">
-        <v>1.162215695820995</v>
+        <v>1.159676802978337</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4057103974611379</v>
+        <v>-0.4056206783712238</v>
       </c>
       <c r="G94" t="n">
-        <v>0.003599108861014248</v>
+        <v>0.00351096379022141</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1587428582285873</v>
       </c>
       <c r="E95" t="n">
-        <v>1.1323549790708</v>
+        <v>1.129940433738724</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2700472634153529</v>
+        <v>-0.2700220791094121</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.001143410751464724</v>
+        <v>-0.001218963669287157</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1524236238539915</v>
       </c>
       <c r="E96" t="n">
-        <v>1.100224526747689</v>
+        <v>1.097934328926196</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1626566608263709</v>
+        <v>-0.1627920264708028</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03581905199371888</v>
+        <v>-0.03613070777973641</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1495900159611682</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04756099498721</v>
+        <v>1.045393570657179</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08047869652238329</v>
+        <v>-0.08071794742882099</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06644789007510896</v>
+        <v>-0.06662732825493724</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1472934559925461</v>
       </c>
       <c r="E98" t="n">
-        <v>0.986805430924125</v>
+        <v>0.9848190187930435</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06832254684857808</v>
+        <v>-0.06870503349505415</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09090499918187904</v>
+        <v>-0.09119776673844097</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1438423706502147</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9349902954700277</v>
+        <v>0.9332462822836265</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.006652477676017132</v>
+        <v>-0.006931079060487353</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1282832312554065</v>
+        <v>-0.1285555365633915</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1401728794229289</v>
       </c>
       <c r="E100" t="n">
-        <v>0.915362277027408</v>
+        <v>0.9140463970420006</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04338401617101043</v>
+        <v>0.04303615794520298</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1293205098563436</v>
+        <v>-0.1295534646862961</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1382868020715093</v>
       </c>
       <c r="E101" t="n">
-        <v>0.854597268849595</v>
+        <v>0.8535489721148087</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06815592910204066</v>
+        <v>0.06767270523180134</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.15929140794503</v>
+        <v>-0.1595117706220121</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1412132780049423</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7934576441209124</v>
+        <v>0.7925037885334042</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1126408575082407</v>
+        <v>0.112417346793016</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1505556018218112</v>
+        <v>-0.1507980007664915</v>
       </c>
     </row>
   </sheetData>
